--- a/検査報告書_(株)広島フォーマット.xlsx
+++ b/検査報告書_(株)広島フォーマット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimas-my.sharepoint.com/personal/mako_sugimoto_hiroshimas_onmicrosoft_com/Documents/デスクトップ/気密試験アプリ_normal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8136770F-0E0C-436C-A239-E3993173EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{8136770F-0E0C-436C-A239-E3993173EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A883524-E10C-459A-AD9F-E3802D406227}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E03E6AE7-514F-4CD1-9FEB-48FD7B8A3336}"/>
   </bookViews>
@@ -1093,15 +1093,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0.332</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>22.5</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.3320</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1115,8 +1115,8 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="@&quot; MPa&quot;"/>
     <numFmt numFmtId="180" formatCode="@&quot; ℃&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.000&quot;MPa&quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot;±&quot;0.000&quot;MPa&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0000&quot;MPa&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;±&quot;0.0000&quot;MPa&quot;"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1635,12 +1635,30 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1650,15 +1668,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1677,18 +1686,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1698,87 +1773,132 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1788,134 +1908,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4560,6 +4560,122 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>644769</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7734BB91-EE48-C48C-28CC-3AB4592E508E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7253654" y="1296865"/>
+          <a:ext cx="2952750" cy="886558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20251128</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>小数点第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位まで表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>補正後圧力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(P2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ROUND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はずし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4865,30 +4981,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4905,63 +5021,63 @@
       <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="R5" s="57" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="R5" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="58"/>
-      <c r="T5" s="57" t="s">
+      <c r="S5" s="61"/>
+      <c r="T5" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="58"/>
+      <c r="U5" s="61"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
     </row>
     <row r="7" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
@@ -4975,10 +5091,10 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="62"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="65"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
@@ -4996,88 +5112,88 @@
       <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="64" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="65" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="65" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
@@ -5085,603 +5201,676 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63" t="s">
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
     </row>
     <row r="15" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
     </row>
     <row r="16" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
     </row>
     <row r="22" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
     </row>
     <row r="23" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
     </row>
     <row r="24" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
     </row>
     <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
     </row>
     <row r="26" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
     </row>
     <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="R37:V37"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:V9"/>
+    <mergeCell ref="D10:V10"/>
+    <mergeCell ref="D11:V11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="R28:V28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="K33:Q33"/>
@@ -5698,91 +5887,18 @@
     <mergeCell ref="D32:J32"/>
     <mergeCell ref="K32:Q32"/>
     <mergeCell ref="R32:V32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:V9"/>
-    <mergeCell ref="D10:V10"/>
-    <mergeCell ref="D11:V11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T6:U7"/>
-    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="R37:V37"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="R36:V36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -5819,243 +5935,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="89"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="85"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="89"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -6077,627 +6193,627 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:20" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94" t="s">
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="94" t="s">
+      <c r="O14" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77" t="s">
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76" t="s">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
     </row>
     <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76" t="s">
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76" t="s">
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76" t="s">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
       <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76" t="s">
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76" t="s">
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
     </row>
     <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76" t="s">
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76" t="s">
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76" t="s">
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
     </row>
     <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76" t="s">
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76" t="s">
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
     </row>
     <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76" t="s">
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
     </row>
     <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
     </row>
     <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
     </row>
     <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
     </row>
     <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
     </row>
     <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
     </row>
     <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="72"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="91"/>
     </row>
     <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="72"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="91"/>
     </row>
     <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
@@ -7123,29 +7239,29 @@
       <c r="Q56" s="14"/>
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
-      <c r="T56" s="73" t="s">
+      <c r="T56" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="66" t="s">
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="X56" s="73" t="s">
+      <c r="X56" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
+      <c r="Y56" s="87"/>
+      <c r="Z56" s="87"/>
       <c r="AA56" s="16"/>
       <c r="AB56" s="16"/>
-      <c r="AC56" s="66" t="s">
+      <c r="AC56" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="AD56" s="66" t="s">
+      <c r="AD56" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AE56" s="66"/>
-      <c r="AF56" s="66"/>
+      <c r="AE56" s="85"/>
+      <c r="AF56" s="85"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="16"/>
       <c r="AI56" s="16"/>
@@ -7181,25 +7297,25 @@
       <c r="Q57" s="14"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
-      <c r="T57" s="67" t="s">
+      <c r="T57" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="67" t="s">
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="86"/>
+      <c r="X57" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
       <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
-      <c r="AC57" s="66"/>
-      <c r="AD57" s="69" t="s">
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AE57" s="69"/>
-      <c r="AF57" s="69"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="94"/>
       <c r="AG57" s="15"/>
       <c r="AH57" s="15"/>
       <c r="AI57" s="15"/>
@@ -7288,7 +7404,7 @@
       <c r="T59" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="U59" s="66" t="s">
+      <c r="U59" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V59" s="17" t="s">
@@ -7342,7 +7458,7 @@
       <c r="T60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="74"/>
+      <c r="U60" s="86"/>
       <c r="V60" s="19" t="s">
         <v>22</v>
       </c>
@@ -7642,6 +7758,150 @@
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="AC56:AC57"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7655,150 +7915,6 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="AC56:AC57"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="T56:V56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7813,7 +7929,7 @@
   <dimension ref="A1:AP65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7834,187 +7950,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="128"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="140" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="135" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="132" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="131" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="133" t="s">
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="135" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126">
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115">
         <v>45750.560416666667</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="126">
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="115">
         <v>45750.581250000003</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="128"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="120" t="s">
@@ -8025,112 +8141,112 @@
         <v>45</v>
       </c>
       <c r="D9" s="120"/>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="121" t="s">
         <v>48</v>
       </c>
       <c r="K9" s="122"/>
       <c r="L9" s="123"/>
-      <c r="M9" s="113" t="s">
+      <c r="M9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113" t="s">
+      <c r="N9" s="116"/>
+      <c r="O9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117">
-        <f>ROUND(((A10+0.1013)*(G10+273.15)/(C10+273.15))-0.1013,3)</f>
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118">
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="142">
+        <f>((A10+0.1013)*(G10+273.15)/(C10+273.15))-0.10133</f>
+        <v>0.33123720784711652</v>
+      </c>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="140">
         <f>A10-J10</f>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119">
+        <v>7.6279215288349578E-4</v>
+      </c>
+      <c r="N10" s="140"/>
+      <c r="O10" s="141">
         <f>A10*0.01</f>
         <v>3.32E-3</v>
       </c>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107" t="s">
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109" t="str">
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129" t="str">
         <f>IF(ABS(M10)&lt;=O10, "合格", "不合格")</f>
         <v>合格</v>
       </c>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
@@ -8153,376 +8269,376 @@
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="C14" s="132"/>
+      <c r="J14" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
       <c r="H15"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="33"/>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="33"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="33"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="33"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="33"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="33"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="33"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
       <c r="H23" s="33"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="33"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="35"/>
       <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="33"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="33"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
       <c r="P26" s="34"/>
       <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="33"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
       <c r="H28" s="33"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
       <c r="P28" s="34"/>
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
       <c r="H29" s="33"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="33"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
       <c r="P30" s="34"/>
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
       <c r="H31" s="33"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="133"/>
       <c r="P31" s="34"/>
       <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="33"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
       <c r="P32" s="34"/>
       <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="33"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="102"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="102" t="s">
+      <c r="J34" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -8530,18 +8646,18 @@
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="32"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -8549,329 +8665,329 @@
     </row>
     <row r="36" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32"/>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="33"/>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="133"/>
       <c r="P36" s="34"/>
       <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
       <c r="H37" s="33"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
       <c r="P37" s="34"/>
       <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="33"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="32"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="33"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
       <c r="P39" s="34"/>
       <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="33"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="32"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
       <c r="H41" s="33"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="133"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
       <c r="H42" s="33"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="133"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="32"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
       <c r="H43" s="33"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="32"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
       <c r="H44" s="33"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+      <c r="O44" s="133"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="35"/>
     </row>
     <row r="45" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="32"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
       <c r="H45" s="33"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="35"/>
     </row>
     <row r="46" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="32"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
       <c r="H46" s="33"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="133"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="35"/>
     </row>
     <row r="47" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="32"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
       <c r="H47" s="33"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="100"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="133"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="35"/>
     </row>
     <row r="48" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
       <c r="H48" s="33"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
+      <c r="O48" s="133"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="35"/>
     </row>
     <row r="49" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="32"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
       <c r="H49" s="33"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="133"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="35"/>
     </row>
     <row r="50" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="32"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="33"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="133"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="35"/>
     </row>
     <row r="51" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
       <c r="H51" s="33"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="133"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
       <c r="H52" s="33"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="133"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="35"/>
     </row>
     <row r="53" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
       <c r="H53" s="33"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="133"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="35"/>
     </row>
@@ -8924,27 +9040,27 @@
     <row r="57" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="Q57" s="40"/>
-      <c r="T57" s="95" t="s">
+      <c r="T57" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="U57" s="95"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="96" t="s">
+      <c r="U57" s="136"/>
+      <c r="V57" s="136"/>
+      <c r="W57" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="X57" s="95" t="s">
+      <c r="X57" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="Y57" s="95"/>
-      <c r="Z57" s="95"/>
-      <c r="AC57" s="96" t="s">
+      <c r="Y57" s="136"/>
+      <c r="Z57" s="136"/>
+      <c r="AC57" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="AD57" s="96" t="s">
+      <c r="AD57" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="AE57" s="96"/>
-      <c r="AF57" s="96"/>
+      <c r="AE57" s="134"/>
+      <c r="AF57" s="134"/>
       <c r="AJ57" s="2" t="s">
         <v>31</v>
       </c>
@@ -8971,23 +9087,23 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="41"/>
-      <c r="T58" s="97" t="s">
+      <c r="T58" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="U58" s="98"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="101"/>
-      <c r="X58" s="97" t="s">
+      <c r="U58" s="138"/>
+      <c r="V58" s="138"/>
+      <c r="W58" s="135"/>
+      <c r="X58" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y58" s="98"/>
-      <c r="Z58" s="98"/>
-      <c r="AC58" s="96"/>
-      <c r="AD58" s="99" t="s">
+      <c r="Y58" s="138"/>
+      <c r="Z58" s="138"/>
+      <c r="AC58" s="134"/>
+      <c r="AD58" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="AE58" s="99"/>
-      <c r="AF58" s="99"/>
+      <c r="AE58" s="139"/>
+      <c r="AF58" s="139"/>
       <c r="AP58" t="s">
         <v>23</v>
       </c>
@@ -9038,7 +9154,7 @@
       <c r="T60" t="s">
         <v>26</v>
       </c>
-      <c r="U60" s="96" t="s">
+      <c r="U60" s="134" t="s">
         <v>18</v>
       </c>
       <c r="V60" t="s">
@@ -9069,7 +9185,7 @@
       <c r="T61" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="U61" s="101"/>
+      <c r="U61" s="135"/>
       <c r="V61" s="43" t="s">
         <v>22</v>
       </c>
@@ -9169,27 +9285,28 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AC57:AC58"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="B36:G53"/>
+    <mergeCell ref="J36:O53"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="B16:G33"/>
+    <mergeCell ref="J16:O33"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A12:Q12"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="A10:B10"/>
@@ -9204,28 +9321,27 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="B16:G33"/>
-    <mergeCell ref="J16:O33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="J34:M35"/>
-    <mergeCell ref="B36:G53"/>
-    <mergeCell ref="J36:O53"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
